--- a/data-description.xlsx
+++ b/data-description.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_repot\donor-recruitment-prediction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A3486C-80AF-4991-B160-57AE6E50EFEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC1CD1B-A865-4D77-96B8-CB062F9B0B80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{7CEA00A9-3B94-48A1-949D-C717D5015037}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{7CEA00A9-3B94-48A1-949D-C717D5015037}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="donation" sheetId="2" r:id="rId2"/>
+    <sheet name="donor" sheetId="3" r:id="rId3"/>
+    <sheet name="deferral" sheetId="4" r:id="rId4"/>
+    <sheet name="contact" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2112" uniqueCount="841">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -400,6 +404,2370 @@
   <si>
     <t>Finnish Red Cross Blood Service, Timo Asikainen, 14 October 2024</t>
   </si>
+  <si>
+    <t>SP_ALPHABETA1001</t>
+  </si>
+  <si>
+    <t>Whole Blood (K)</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>H0091</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1002</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1003</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>U0853</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1004</t>
+  </si>
+  <si>
+    <t>K0167</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1005</t>
+  </si>
+  <si>
+    <t>T1342</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1006</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1007</t>
+  </si>
+  <si>
+    <t>S1215</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1008</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>T0837</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1009</t>
+  </si>
+  <si>
+    <t>No Donation (E)</t>
+  </si>
+  <si>
+    <t>L1030</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1010</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1011</t>
+  </si>
+  <si>
+    <t>K1035</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1012</t>
+  </si>
+  <si>
+    <t>T0179</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1013</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1014</t>
+  </si>
+  <si>
+    <t>H0093</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1015</t>
+  </si>
+  <si>
+    <t>H1401</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1016</t>
+  </si>
+  <si>
+    <t>Plasmapheresis (P)</t>
+  </si>
+  <si>
+    <t>K0297</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1017</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1018</t>
+  </si>
+  <si>
+    <t>S1002</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1019</t>
+  </si>
+  <si>
+    <t>H1245</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1020</t>
+  </si>
+  <si>
+    <t>U1474</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1021</t>
+  </si>
+  <si>
+    <t>U0609</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1022</t>
+  </si>
+  <si>
+    <t>T1163</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1023</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1024</t>
+  </si>
+  <si>
+    <t>Workplace</t>
+  </si>
+  <si>
+    <t>T0285</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1025</t>
+  </si>
+  <si>
+    <t>U0109</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1026</t>
+  </si>
+  <si>
+    <t>U0905</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1027</t>
+  </si>
+  <si>
+    <t>K1050</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1028</t>
+  </si>
+  <si>
+    <t>Learning institution</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1029</t>
+  </si>
+  <si>
+    <t>L0698</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1030</t>
+  </si>
+  <si>
+    <t>U1403</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1031</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1032</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1033</t>
+  </si>
+  <si>
+    <t>U2557</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1034</t>
+  </si>
+  <si>
+    <t>L0564</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1035</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1036</t>
+  </si>
+  <si>
+    <t>L0272</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1037</t>
+  </si>
+  <si>
+    <t>Garrison</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1038</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1039</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1040</t>
+  </si>
+  <si>
+    <t>L0205</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1041</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1042</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1043</t>
+  </si>
+  <si>
+    <t>L1455</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1044</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1045</t>
+  </si>
+  <si>
+    <t>H4017</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1046</t>
+  </si>
+  <si>
+    <t>U1610</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1047</t>
+  </si>
+  <si>
+    <t>H1558</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1048</t>
+  </si>
+  <si>
+    <t>H1474</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1049</t>
+  </si>
+  <si>
+    <t>H1048</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1050</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1051</t>
+  </si>
+  <si>
+    <t>T1229</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1052</t>
+  </si>
+  <si>
+    <t>H1076</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1053</t>
+  </si>
+  <si>
+    <t>K0491</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1054</t>
+  </si>
+  <si>
+    <t>L1472</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1055</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1056</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1057</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1058</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1059</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1060</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1061</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1062</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1063</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1064</t>
+  </si>
+  <si>
+    <t>U1468</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1065</t>
+  </si>
+  <si>
+    <t>H1444</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1066</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1067</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1068</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1069</t>
+  </si>
+  <si>
+    <t>H1101</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1070</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1071</t>
+  </si>
+  <si>
+    <t>Kokoveri/Tetanus (R)</t>
+  </si>
+  <si>
+    <t>T0398</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1072</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1073</t>
+  </si>
+  <si>
+    <t>K1168</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1074</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1075</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1076</t>
+  </si>
+  <si>
+    <t>H1094</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1077</t>
+  </si>
+  <si>
+    <t>L1206</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1078</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1079</t>
+  </si>
+  <si>
+    <t>H1333</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1080</t>
+  </si>
+  <si>
+    <t>H1142</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1081</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1082</t>
+  </si>
+  <si>
+    <t>U1286</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1083</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1084</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1085</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1086</t>
+  </si>
+  <si>
+    <t>U1321</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1087</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1088</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1089</t>
+  </si>
+  <si>
+    <t>L0240</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1090</t>
+  </si>
+  <si>
+    <t>H2070</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1091</t>
+  </si>
+  <si>
+    <t>K1467</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1092</t>
+  </si>
+  <si>
+    <t>U1412</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1093</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1094</t>
+  </si>
+  <si>
+    <t>T0743</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1095</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1096</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1097</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1098</t>
+  </si>
+  <si>
+    <t>H0096</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1099</t>
+  </si>
+  <si>
+    <t>K1297</t>
+  </si>
+  <si>
+    <t>SP_ALPHABETA1100</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>03100 NUMMELA</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>O+</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>90240 OULU</t>
+  </si>
+  <si>
+    <t>10960 HANKO POHJOINEN</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>33720 TAMPERE</t>
+  </si>
+  <si>
+    <t>23500 UUSIKAUPUNKI</t>
+  </si>
+  <si>
+    <t>A+</t>
+  </si>
+  <si>
+    <t>64200 NÄRPES</t>
+  </si>
+  <si>
+    <t>00250 HELSINKI</t>
+  </si>
+  <si>
+    <t>33800 TAMPERE</t>
+  </si>
+  <si>
+    <t>90540 OULU</t>
+  </si>
+  <si>
+    <t>07910 VALKO</t>
+  </si>
+  <si>
+    <t>00420 HELSINKI</t>
+  </si>
+  <si>
+    <t>70460 KUOPIO</t>
+  </si>
+  <si>
+    <t>A-</t>
+  </si>
+  <si>
+    <t>33850 TAMPERE</t>
+  </si>
+  <si>
+    <t>00910 HELSINKI</t>
+  </si>
+  <si>
+    <t>12400 TERVAKOSKI</t>
+  </si>
+  <si>
+    <t>49300 TAVASTILA</t>
+  </si>
+  <si>
+    <t>00740 HELSINKI</t>
+  </si>
+  <si>
+    <t>02880 VEIKKOLA</t>
+  </si>
+  <si>
+    <t>82500 KITEE</t>
+  </si>
+  <si>
+    <t>92120 RAAHE</t>
+  </si>
+  <si>
+    <t>70820 KUOPIO</t>
+  </si>
+  <si>
+    <t>81700 LIEKSA</t>
+  </si>
+  <si>
+    <t>65350 VAASA</t>
+  </si>
+  <si>
+    <t>70780 KUOPIO</t>
+  </si>
+  <si>
+    <t>96190 ROVANIEMI</t>
+  </si>
+  <si>
+    <t>00810 HELSINKI</t>
+  </si>
+  <si>
+    <t>B-</t>
+  </si>
+  <si>
+    <t>00320 HELSINKI</t>
+  </si>
+  <si>
+    <t>12750 PILPALA</t>
+  </si>
+  <si>
+    <t>00780 HELSINKI</t>
+  </si>
+  <si>
+    <t>80130 JOENSUU</t>
+  </si>
+  <si>
+    <t>02320 ESPOO</t>
+  </si>
+  <si>
+    <t>15830 LAHTI</t>
+  </si>
+  <si>
+    <t>57100 SAVONLINNA</t>
+  </si>
+  <si>
+    <t>00000 TUNTEMATON POSTINUMERO</t>
+  </si>
+  <si>
+    <t>AB+</t>
+  </si>
+  <si>
+    <t>90100 OULU</t>
+  </si>
+  <si>
+    <t>00560 HELSINKI</t>
+  </si>
+  <si>
+    <t>65380 VAASA</t>
+  </si>
+  <si>
+    <t>31470 SOMERNIEMI</t>
+  </si>
+  <si>
+    <t>98120 KEMIJÄRVI</t>
+  </si>
+  <si>
+    <t>44280 SUMIAINEN</t>
+  </si>
+  <si>
+    <t>33500 TAMPERE</t>
+  </si>
+  <si>
+    <t>05820 HYVINKÄÄ</t>
+  </si>
+  <si>
+    <t>91800 TYRNÄVÄ</t>
+  </si>
+  <si>
+    <t>O-</t>
+  </si>
+  <si>
+    <t>00170 HELSINKI</t>
+  </si>
+  <si>
+    <t>02150 ESPOO</t>
+  </si>
+  <si>
+    <t>70340 KUOPIO</t>
+  </si>
+  <si>
+    <t>90420 OULU</t>
+  </si>
+  <si>
+    <t>41140 KUIKKA</t>
+  </si>
+  <si>
+    <t>20100 TURKU</t>
+  </si>
+  <si>
+    <t>42600 MULTIA</t>
+  </si>
+  <si>
+    <t>50190 MIKKELI</t>
+  </si>
+  <si>
+    <t>02750 ESPOO</t>
+  </si>
+  <si>
+    <t>10600 TAMMISAARI</t>
+  </si>
+  <si>
+    <t>70100 KUOPIO</t>
+  </si>
+  <si>
+    <t>81100 KONTIOLAHTI</t>
+  </si>
+  <si>
+    <t>61500 ISOKYRÖ</t>
+  </si>
+  <si>
+    <t>00330 HELSINKI</t>
+  </si>
+  <si>
+    <t>16280 KUIVANTO</t>
+  </si>
+  <si>
+    <t>23800 LAITILA</t>
+  </si>
+  <si>
+    <t>15270 KUKKILA</t>
+  </si>
+  <si>
+    <t>11910 RIIHIMÄKI</t>
+  </si>
+  <si>
+    <t>40800 VAAJAKOSKI</t>
+  </si>
+  <si>
+    <t>33560 TAMPERE</t>
+  </si>
+  <si>
+    <t>74160 IISALMI</t>
+  </si>
+  <si>
+    <t>02600 ESPOO</t>
+  </si>
+  <si>
+    <t>33880 LEMPÄÄLÄ</t>
+  </si>
+  <si>
+    <t>40400 JYVÄSKYLÄ</t>
+  </si>
+  <si>
+    <t>45360 VALKEALA</t>
+  </si>
+  <si>
+    <t>72600 KEITELE</t>
+  </si>
+  <si>
+    <t>65100 VASA</t>
+  </si>
+  <si>
+    <t>02140 ESPOO</t>
+  </si>
+  <si>
+    <t>52300 RISTIINA</t>
+  </si>
+  <si>
+    <t>20320 TURKU</t>
+  </si>
+  <si>
+    <t>65100 VAASA</t>
+  </si>
+  <si>
+    <t>86600 HAAPAVESI</t>
+  </si>
+  <si>
+    <t>47400 KAUSALA</t>
+  </si>
+  <si>
+    <t>90830 HAUKIPUDAS</t>
+  </si>
+  <si>
+    <t>01390 VANTAA</t>
+  </si>
+  <si>
+    <t>01200 VANTAA</t>
+  </si>
+  <si>
+    <t>33200 TAMPERE</t>
+  </si>
+  <si>
+    <t>43900 KINNULA</t>
+  </si>
+  <si>
+    <t>01360 VANTAA</t>
+  </si>
+  <si>
+    <t>80160 JOENSUU</t>
+  </si>
+  <si>
+    <t>49410 POITSILA</t>
+  </si>
+  <si>
+    <t>70700 KUOPIO</t>
+  </si>
+  <si>
+    <t>83500 OUTOKUMPU</t>
+  </si>
+  <si>
+    <t>40640 JYVÄSKYLÄ</t>
+  </si>
+  <si>
+    <t>62570 SÄRKILÄ</t>
+  </si>
+  <si>
+    <t>1989-06-01</t>
+  </si>
+  <si>
+    <t>1991-07-08</t>
+  </si>
+  <si>
+    <t>1980-12-22</t>
+  </si>
+  <si>
+    <t>1999-09-01</t>
+  </si>
+  <si>
+    <t>1954-08-14</t>
+  </si>
+  <si>
+    <t>1988-03-25</t>
+  </si>
+  <si>
+    <t>1985-06-24</t>
+  </si>
+  <si>
+    <t>1955-10-28</t>
+  </si>
+  <si>
+    <t>2002-07-11</t>
+  </si>
+  <si>
+    <t>2004-02-26</t>
+  </si>
+  <si>
+    <t>1996-07-12</t>
+  </si>
+  <si>
+    <t>1953-05-20</t>
+  </si>
+  <si>
+    <t>1965-10-28</t>
+  </si>
+  <si>
+    <t>1956-04-04</t>
+  </si>
+  <si>
+    <t>1986-06-10</t>
+  </si>
+  <si>
+    <t>1978-11-19</t>
+  </si>
+  <si>
+    <t>1975-12-25</t>
+  </si>
+  <si>
+    <t>1990-04-26</t>
+  </si>
+  <si>
+    <t>1969-01-01</t>
+  </si>
+  <si>
+    <t>1980-11-19</t>
+  </si>
+  <si>
+    <t>1948-09-26</t>
+  </si>
+  <si>
+    <t>1975-09-30</t>
+  </si>
+  <si>
+    <t>1933-09-16</t>
+  </si>
+  <si>
+    <t>1983-08-25</t>
+  </si>
+  <si>
+    <t>1971-01-15</t>
+  </si>
+  <si>
+    <t>1993-12-20</t>
+  </si>
+  <si>
+    <t>1936-03-19</t>
+  </si>
+  <si>
+    <t>1964-02-12</t>
+  </si>
+  <si>
+    <t>1990-11-18</t>
+  </si>
+  <si>
+    <t>1987-10-12</t>
+  </si>
+  <si>
+    <t>1948-04-18</t>
+  </si>
+  <si>
+    <t>1951-12-30</t>
+  </si>
+  <si>
+    <t>1961-06-08</t>
+  </si>
+  <si>
+    <t>1960-07-12</t>
+  </si>
+  <si>
+    <t>1998-08-21</t>
+  </si>
+  <si>
+    <t>1975-03-20</t>
+  </si>
+  <si>
+    <t>1942-11-29</t>
+  </si>
+  <si>
+    <t>1989-12-09</t>
+  </si>
+  <si>
+    <t>1962-07-14</t>
+  </si>
+  <si>
+    <t>1980-06-02</t>
+  </si>
+  <si>
+    <t>1995-08-14</t>
+  </si>
+  <si>
+    <t>1980-04-24</t>
+  </si>
+  <si>
+    <t>1981-12-15</t>
+  </si>
+  <si>
+    <t>1976-10-20</t>
+  </si>
+  <si>
+    <t>1994-03-25</t>
+  </si>
+  <si>
+    <t>1997-04-13</t>
+  </si>
+  <si>
+    <t>1959-02-25</t>
+  </si>
+  <si>
+    <t>1950-01-20</t>
+  </si>
+  <si>
+    <t>1938-07-22</t>
+  </si>
+  <si>
+    <t>1982-08-21</t>
+  </si>
+  <si>
+    <t>1969-11-14</t>
+  </si>
+  <si>
+    <t>1964-03-11</t>
+  </si>
+  <si>
+    <t>1944-03-05</t>
+  </si>
+  <si>
+    <t>2004-08-13</t>
+  </si>
+  <si>
+    <t>1958-08-20</t>
+  </si>
+  <si>
+    <t>1947-03-02</t>
+  </si>
+  <si>
+    <t>2001-01-06</t>
+  </si>
+  <si>
+    <t>1982-01-05</t>
+  </si>
+  <si>
+    <t>1957-01-24</t>
+  </si>
+  <si>
+    <t>1974-03-04</t>
+  </si>
+  <si>
+    <t>1988-02-27</t>
+  </si>
+  <si>
+    <t>2002-05-14</t>
+  </si>
+  <si>
+    <t>1994-11-10</t>
+  </si>
+  <si>
+    <t>1974-01-20</t>
+  </si>
+  <si>
+    <t>1971-08-22</t>
+  </si>
+  <si>
+    <t>1970-03-28</t>
+  </si>
+  <si>
+    <t>1985-07-03</t>
+  </si>
+  <si>
+    <t>1962-09-25</t>
+  </si>
+  <si>
+    <t>1977-04-13</t>
+  </si>
+  <si>
+    <t>1952-09-06</t>
+  </si>
+  <si>
+    <t>1975-07-20</t>
+  </si>
+  <si>
+    <t>1953-02-16</t>
+  </si>
+  <si>
+    <t>1987-09-14</t>
+  </si>
+  <si>
+    <t>1996-03-09</t>
+  </si>
+  <si>
+    <t>1992-05-12</t>
+  </si>
+  <si>
+    <t>1975-06-29</t>
+  </si>
+  <si>
+    <t>1951-03-18</t>
+  </si>
+  <si>
+    <t>1960-05-09</t>
+  </si>
+  <si>
+    <t>1981-08-11</t>
+  </si>
+  <si>
+    <t>1987-02-19</t>
+  </si>
+  <si>
+    <t>1992-01-01</t>
+  </si>
+  <si>
+    <t>1980-07-30</t>
+  </si>
+  <si>
+    <t>1964-01-19</t>
+  </si>
+  <si>
+    <t>1998-05-29</t>
+  </si>
+  <si>
+    <t>1994-12-02</t>
+  </si>
+  <si>
+    <t>1976-01-18</t>
+  </si>
+  <si>
+    <t>1996-07-17</t>
+  </si>
+  <si>
+    <t>1977-02-06</t>
+  </si>
+  <si>
+    <t>1957-07-21</t>
+  </si>
+  <si>
+    <t>1994-11-11</t>
+  </si>
+  <si>
+    <t>1986-07-26</t>
+  </si>
+  <si>
+    <t>1954-08-27</t>
+  </si>
+  <si>
+    <t>1981-02-13</t>
+  </si>
+  <si>
+    <t>1994-05-21</t>
+  </si>
+  <si>
+    <t>1964-03-25</t>
+  </si>
+  <si>
+    <t>1975-09-15</t>
+  </si>
+  <si>
+    <t>1981-09-20</t>
+  </si>
+  <si>
+    <t>1993-04-13</t>
+  </si>
+  <si>
+    <t>1977-05-29</t>
+  </si>
+  <si>
+    <t>1947-06-12</t>
+  </si>
+  <si>
+    <t>2003-06-26</t>
+  </si>
+  <si>
+    <t>2011-05-27</t>
+  </si>
+  <si>
+    <t>2015-03-05</t>
+  </si>
+  <si>
+    <t>2005-10-27</t>
+  </si>
+  <si>
+    <t>2021-05-18</t>
+  </si>
+  <si>
+    <t>2003-11-19</t>
+  </si>
+  <si>
+    <t>2009-03-02</t>
+  </si>
+  <si>
+    <t>2006-05-15</t>
+  </si>
+  <si>
+    <t>2015-06-17</t>
+  </si>
+  <si>
+    <t>2019-09-03</t>
+  </si>
+  <si>
+    <t>2006-03-27</t>
+  </si>
+  <si>
+    <t>2001-07-11</t>
+  </si>
+  <si>
+    <t>2020-01-27</t>
+  </si>
+  <si>
+    <t>2016-01-20</t>
+  </si>
+  <si>
+    <t>2023-07-26</t>
+  </si>
+  <si>
+    <t>2002-01-24</t>
+  </si>
+  <si>
+    <t>2003-07-31</t>
+  </si>
+  <si>
+    <t>2001-08-20</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>2005-07-26</t>
+  </si>
+  <si>
+    <t>2022-12-23</t>
+  </si>
+  <si>
+    <t>2012-08-02</t>
+  </si>
+  <si>
+    <t>2004-07-26</t>
+  </si>
+  <si>
+    <t>2000-10-27</t>
+  </si>
+  <si>
+    <t>2009-07-02</t>
+  </si>
+  <si>
+    <t>2011-05-04</t>
+  </si>
+  <si>
+    <t>2006-02-24</t>
+  </si>
+  <si>
+    <t>2013-04-01</t>
+  </si>
+  <si>
+    <t>2023-03-02</t>
+  </si>
+  <si>
+    <t>2003-01-31</t>
+  </si>
+  <si>
+    <t>2001-04-09</t>
+  </si>
+  <si>
+    <t>2021-07-05</t>
+  </si>
+  <si>
+    <t>2013-08-08</t>
+  </si>
+  <si>
+    <t>2012-07-03</t>
+  </si>
+  <si>
+    <t>2015-05-06</t>
+  </si>
+  <si>
+    <t>2006-11-30</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>2002-11-20</t>
+  </si>
+  <si>
+    <t>2011-06-16</t>
+  </si>
+  <si>
+    <t>2005-07-28</t>
+  </si>
+  <si>
+    <t>2008-09-18</t>
+  </si>
+  <si>
+    <t>2011-04-14</t>
+  </si>
+  <si>
+    <t>2019-11-01</t>
+  </si>
+  <si>
+    <t>2000-09-11</t>
+  </si>
+  <si>
+    <t>2002-01-28</t>
+  </si>
+  <si>
+    <t>2003-01-30</t>
+  </si>
+  <si>
+    <t>2002-09-05</t>
+  </si>
+  <si>
+    <t>2009-09-22</t>
+  </si>
+  <si>
+    <t>2005-02-17</t>
+  </si>
+  <si>
+    <t>2001-03-22</t>
+  </si>
+  <si>
+    <t>2021-08-31</t>
+  </si>
+  <si>
+    <t>2011-12-09</t>
+  </si>
+  <si>
+    <t>2017-06-20</t>
+  </si>
+  <si>
+    <t>2017-08-22</t>
+  </si>
+  <si>
+    <t>2018-01-15</t>
+  </si>
+  <si>
+    <t>2019-01-29</t>
+  </si>
+  <si>
+    <t>2009-03-16</t>
+  </si>
+  <si>
+    <t>2022-11-28</t>
+  </si>
+  <si>
+    <t>2003-10-22</t>
+  </si>
+  <si>
+    <t>2021-12-23</t>
+  </si>
+  <si>
+    <t>2013-03-14</t>
+  </si>
+  <si>
+    <t>2011-01-19</t>
+  </si>
+  <si>
+    <t>2000-10-13</t>
+  </si>
+  <si>
+    <t>2023-08-25</t>
+  </si>
+  <si>
+    <t>2015-11-11</t>
+  </si>
+  <si>
+    <t>2006-03-17</t>
+  </si>
+  <si>
+    <t>2023-05-16</t>
+  </si>
+  <si>
+    <t>2013-07-11</t>
+  </si>
+  <si>
+    <t>2004-10-05</t>
+  </si>
+  <si>
+    <t>2009-08-10</t>
+  </si>
+  <si>
+    <t>2013-12-09</t>
+  </si>
+  <si>
+    <t>2006-07-10</t>
+  </si>
+  <si>
+    <t>2004-07-20</t>
+  </si>
+  <si>
+    <t>2003-02-28</t>
+  </si>
+  <si>
+    <t>2013-08-21</t>
+  </si>
+  <si>
+    <t>2003-11-18</t>
+  </si>
+  <si>
+    <t>2002-09-03</t>
+  </si>
+  <si>
+    <t>2002-06-24</t>
+  </si>
+  <si>
+    <t>2002-11-22</t>
+  </si>
+  <si>
+    <t>2004-09-09</t>
+  </si>
+  <si>
+    <t>2019-10-14</t>
+  </si>
+  <si>
+    <t>2008-08-19</t>
+  </si>
+  <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>2001-02-20</t>
+  </si>
+  <si>
+    <t>2013-04-24</t>
+  </si>
+  <si>
+    <t>2009-12-10</t>
+  </si>
+  <si>
+    <t>2000-11-22</t>
+  </si>
+  <si>
+    <t>2008-07-25</t>
+  </si>
+  <si>
+    <t>2004-01-21</t>
+  </si>
+  <si>
+    <t>2017-12-18</t>
+  </si>
+  <si>
+    <t>2019-02-21</t>
+  </si>
+  <si>
+    <t>2023-01-05</t>
+  </si>
+  <si>
+    <t>2002-02-13</t>
+  </si>
+  <si>
+    <t>2020-10-12</t>
+  </si>
+  <si>
+    <t>2010-11-26</t>
+  </si>
+  <si>
+    <t>2009-01-02</t>
+  </si>
+  <si>
+    <t>2007-07-12</t>
+  </si>
+  <si>
+    <t>2005-05-24</t>
+  </si>
+  <si>
+    <t>2002-07-16</t>
+  </si>
+  <si>
+    <t>2010-08-23</t>
+  </si>
+  <si>
+    <t>R (Restricts production)</t>
+  </si>
+  <si>
+    <t>2006-11-06</t>
+  </si>
+  <si>
+    <t>2284-11-08</t>
+  </si>
+  <si>
+    <t>P (Permanent deferral)</t>
+  </si>
+  <si>
+    <t>2006-11-11</t>
+  </si>
+  <si>
+    <t>2007-10-01</t>
+  </si>
+  <si>
+    <t>S (Temporary deferrals)</t>
+  </si>
+  <si>
+    <t>2019-10-08</t>
+  </si>
+  <si>
+    <t>2273-11-03</t>
+  </si>
+  <si>
+    <t>M (Other)</t>
+  </si>
+  <si>
+    <t>2019-05-20</t>
+  </si>
+  <si>
+    <t>2283-07-13</t>
+  </si>
+  <si>
+    <t>2001-07-12</t>
+  </si>
+  <si>
+    <t>2000-09-30</t>
+  </si>
+  <si>
+    <t>2019-09-04</t>
+  </si>
+  <si>
+    <t>2024-02-29</t>
+  </si>
+  <si>
+    <t>2014-12-18</t>
+  </si>
+  <si>
+    <t>2016-12-17</t>
+  </si>
+  <si>
+    <t>1994-10-10</t>
+  </si>
+  <si>
+    <t>2010-06-07</t>
+  </si>
+  <si>
+    <t>2020-01-31</t>
+  </si>
+  <si>
+    <t>2275-07-25</t>
+  </si>
+  <si>
+    <t>2018-03-14</t>
+  </si>
+  <si>
+    <t>2276-12-26</t>
+  </si>
+  <si>
+    <t>2007-12-04</t>
+  </si>
+  <si>
+    <t>2013-11-30</t>
+  </si>
+  <si>
+    <t>2018-07-05</t>
+  </si>
+  <si>
+    <t>2295-03-28 00:25:00</t>
+  </si>
+  <si>
+    <t>2023-07-06 15:23:08</t>
+  </si>
+  <si>
+    <t>2283-07-02</t>
+  </si>
+  <si>
+    <t>2012-02-27</t>
+  </si>
+  <si>
+    <t>2289-02-04</t>
+  </si>
+  <si>
+    <t>2014-12-17</t>
+  </si>
+  <si>
+    <t>2013-08-05</t>
+  </si>
+  <si>
+    <t>2021-11-02 17:18:00</t>
+  </si>
+  <si>
+    <t>2019-03-12</t>
+  </si>
+  <si>
+    <t>2014-04-30</t>
+  </si>
+  <si>
+    <t>2280-03-15</t>
+  </si>
+  <si>
+    <t>2019-04-24</t>
+  </si>
+  <si>
+    <t>2004-02-01</t>
+  </si>
+  <si>
+    <t>2015-03-02</t>
+  </si>
+  <si>
+    <t>2200-01-01</t>
+  </si>
+  <si>
+    <t>2020-02-04</t>
+  </si>
+  <si>
+    <t>2007-08-15</t>
+  </si>
+  <si>
+    <t>2010-04-21</t>
+  </si>
+  <si>
+    <t>2011-03-31</t>
+  </si>
+  <si>
+    <t>2017-07-12</t>
+  </si>
+  <si>
+    <t>2275-12-21</t>
+  </si>
+  <si>
+    <t>2023-05-04 17:53:00</t>
+  </si>
+  <si>
+    <t>2295-02-04</t>
+  </si>
+  <si>
+    <t>2010-06-29</t>
+  </si>
+  <si>
+    <t>2277-07-29</t>
+  </si>
+  <si>
+    <t>2006-12-18</t>
+  </si>
+  <si>
+    <t>2013-08-09</t>
+  </si>
+  <si>
+    <t>2015-01-13</t>
+  </si>
+  <si>
+    <t>2007-01-23</t>
+  </si>
+  <si>
+    <t>2002-11-05</t>
+  </si>
+  <si>
+    <t>2002-08-20</t>
+  </si>
+  <si>
+    <t>2012-02-17</t>
+  </si>
+  <si>
+    <t>2022-04-03</t>
+  </si>
+  <si>
+    <t>2001-08-29</t>
+  </si>
+  <si>
+    <t>2015-05-19</t>
+  </si>
+  <si>
+    <t>1999-04-22</t>
+  </si>
+  <si>
+    <t>2019-08-04</t>
+  </si>
+  <si>
+    <t>1998-05-19</t>
+  </si>
+  <si>
+    <t>2018-08-01</t>
+  </si>
+  <si>
+    <t>2291-09-29</t>
+  </si>
+  <si>
+    <t>2022-04-12 13:49:00</t>
+  </si>
+  <si>
+    <t>2019-09-25</t>
+  </si>
+  <si>
+    <t>2018-07-02</t>
+  </si>
+  <si>
+    <t>2293-06-17</t>
+  </si>
+  <si>
+    <t>2006-07-05</t>
+  </si>
+  <si>
+    <t>2295-06-07 00:39:00</t>
+  </si>
+  <si>
+    <t>2018-11-14</t>
+  </si>
+  <si>
+    <t>2012-10-18</t>
+  </si>
+  <si>
+    <t>2010-06-16</t>
+  </si>
+  <si>
+    <t>2281-02-18</t>
+  </si>
+  <si>
+    <t>2024-04-11 12:55:00</t>
+  </si>
+  <si>
+    <t>2009-04-26</t>
+  </si>
+  <si>
+    <t>2021-06-08 14:04:00</t>
+  </si>
+  <si>
+    <t>2050-12-31</t>
+  </si>
+  <si>
+    <t>2024-03-22</t>
+  </si>
+  <si>
+    <t>2018-12-11</t>
+  </si>
+  <si>
+    <t>2013-11-01</t>
+  </si>
+  <si>
+    <t>2022-07-11 15:45:00</t>
+  </si>
+  <si>
+    <t>2281-08-02</t>
+  </si>
+  <si>
+    <t>2019-03-28</t>
+  </si>
+  <si>
+    <t>2016-09-01</t>
+  </si>
+  <si>
+    <t>2019-04-17</t>
+  </si>
+  <si>
+    <t>2006-01-18</t>
+  </si>
+  <si>
+    <t>H (Donor Adverse Reaction)</t>
+  </si>
+  <si>
+    <t>2014-11-26</t>
+  </si>
+  <si>
+    <t>2019-08-29</t>
+  </si>
+  <si>
+    <t>2004-09-22</t>
+  </si>
+  <si>
+    <t>2279-02-07</t>
+  </si>
+  <si>
+    <t>2018-02-22</t>
+  </si>
+  <si>
+    <t>2016-10-06</t>
+  </si>
+  <si>
+    <t>2023-08-22 12:03:00</t>
+  </si>
+  <si>
+    <t>2005-06-27</t>
+  </si>
+  <si>
+    <t>2022-07-13 16:56:00</t>
+  </si>
+  <si>
+    <t>2015-11-18</t>
+  </si>
+  <si>
+    <t>2281-06-27</t>
+  </si>
+  <si>
+    <t>2014-05-13</t>
+  </si>
+  <si>
+    <t>2007-06-26</t>
+  </si>
+  <si>
+    <t>2014-07-14</t>
+  </si>
+  <si>
+    <t>2018-04-07</t>
+  </si>
+  <si>
+    <t>F (Lifetime deferral)</t>
+  </si>
+  <si>
+    <t>2016-04-19</t>
+  </si>
+  <si>
+    <t>2297-08-23 00:55:00</t>
+  </si>
+  <si>
+    <t>2016-10-30</t>
+  </si>
+  <si>
+    <t>2000-05-10</t>
+  </si>
+  <si>
+    <t>2012-01-30</t>
+  </si>
+  <si>
+    <t>2007-05-17</t>
+  </si>
+  <si>
+    <t>2013-09-13</t>
+  </si>
+  <si>
+    <t>2018-07-18</t>
+  </si>
+  <si>
+    <t>2002-08-21</t>
+  </si>
+  <si>
+    <t>2020-12-28</t>
+  </si>
+  <si>
+    <t>2019-03-25</t>
+  </si>
+  <si>
+    <t>2022-07-15 11:06:00</t>
+  </si>
+  <si>
+    <t>2012-05-02</t>
+  </si>
+  <si>
+    <t>1998-11-08</t>
+  </si>
+  <si>
+    <t>2018-04-11</t>
+  </si>
+  <si>
+    <t>2017-05-03</t>
+  </si>
+  <si>
+    <t>2016-04-25</t>
+  </si>
+  <si>
+    <t>2016-03-10</t>
+  </si>
+  <si>
+    <t>2019-08-08</t>
+  </si>
+  <si>
+    <t>2280-01-26</t>
+  </si>
+  <si>
+    <t>1998-11-15</t>
+  </si>
+  <si>
+    <t>2295-02-14 00:18:00</t>
+  </si>
+  <si>
+    <t>2018-05-03</t>
+  </si>
+  <si>
+    <t>2020-08-31</t>
+  </si>
+  <si>
+    <t>2022-12-23 13:50:00</t>
+  </si>
+  <si>
+    <t>2275-07-03</t>
+  </si>
+  <si>
+    <t>2012-05-23</t>
+  </si>
+  <si>
+    <t>2001-11-22</t>
+  </si>
+  <si>
+    <t>2006-05-31</t>
+  </si>
+  <si>
+    <t>2293-04-29</t>
+  </si>
+  <si>
+    <t>2000-12-09</t>
+  </si>
+  <si>
+    <t>2023-02-24</t>
+  </si>
+  <si>
+    <t>2008-10-31</t>
+  </si>
+  <si>
+    <t>2019-12-18</t>
+  </si>
+  <si>
+    <t>2003-04-22</t>
+  </si>
+  <si>
+    <t>2022-05-12</t>
+  </si>
+  <si>
+    <t>2293-11-21</t>
+  </si>
+  <si>
+    <t>2008-02-11</t>
+  </si>
+  <si>
+    <t>2015-04-28</t>
+  </si>
+  <si>
+    <t>2005-01-03</t>
+  </si>
+  <si>
+    <t>2070-01-01</t>
+  </si>
+  <si>
+    <t>2018-03-01</t>
+  </si>
+  <si>
+    <t>2016-07-01</t>
+  </si>
+  <si>
+    <t>2008-10-27</t>
+  </si>
+  <si>
+    <t>2057-10-06</t>
+  </si>
+  <si>
+    <t>2023-12-20 14:15:00</t>
+  </si>
+  <si>
+    <t>2008-08-25</t>
+  </si>
+  <si>
+    <t>2018-03-19</t>
+  </si>
+  <si>
+    <t>2019-08-13</t>
+  </si>
+  <si>
+    <t>2002-01-14</t>
+  </si>
+  <si>
+    <t>2015-08-05</t>
+  </si>
+  <si>
+    <t>2009-04-27</t>
+  </si>
+  <si>
+    <t>2022-11-10</t>
+  </si>
+  <si>
+    <t>2019-07-30</t>
+  </si>
+  <si>
+    <t>2296-02-29 16:26:09</t>
+  </si>
+  <si>
+    <t>2008-10-20</t>
+  </si>
+  <si>
+    <t>2015-02-24</t>
+  </si>
+  <si>
+    <t>2014-05-30</t>
+  </si>
+  <si>
+    <t>2018-03-28</t>
+  </si>
+  <si>
+    <t>2018-05-31</t>
+  </si>
+  <si>
+    <t>2297-02-07 00:42:00</t>
+  </si>
+  <si>
+    <t>2005-09-30</t>
+  </si>
+  <si>
+    <t>2286-12-21</t>
+  </si>
+  <si>
+    <t>2020-02-11</t>
+  </si>
+  <si>
+    <t>2017-06-04</t>
+  </si>
+  <si>
+    <t>2009-02-05</t>
+  </si>
+  <si>
+    <t>2011-01-31</t>
+  </si>
+  <si>
+    <t>2003-09-18</t>
+  </si>
+  <si>
+    <t>2009-02-24</t>
+  </si>
+  <si>
+    <t>2007-07-19</t>
+  </si>
+  <si>
+    <t>2019-05-11</t>
+  </si>
+  <si>
+    <t>2017-11-29</t>
+  </si>
+  <si>
+    <t>2007-05-22</t>
+  </si>
+  <si>
+    <t>2019-12-03</t>
+  </si>
+  <si>
+    <t>2276-12-25</t>
+  </si>
+  <si>
+    <t>2009-05-18</t>
+  </si>
+  <si>
+    <t>2281-11-07</t>
+  </si>
+  <si>
+    <t>2011-11-25</t>
+  </si>
+  <si>
+    <t>2294-04-19 00:49:00</t>
+  </si>
+  <si>
+    <t>2019-06-25</t>
+  </si>
+  <si>
+    <t>2020-04-15</t>
+  </si>
+  <si>
+    <t>2009-09-07</t>
+  </si>
+  <si>
+    <t>2004-07-12</t>
+  </si>
+  <si>
+    <t>2050-01-01</t>
+  </si>
+  <si>
+    <t>SMS</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>2021-04-07 08:54:00</t>
+  </si>
+  <si>
+    <t>Invitation</t>
+  </si>
+  <si>
+    <t>2015-05-12</t>
+  </si>
+  <si>
+    <t>2022-12-02 13:57:00</t>
+  </si>
+  <si>
+    <t>T1425</t>
+  </si>
+  <si>
+    <t>2021-02-11 09:29:00</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Questionary</t>
+  </si>
+  <si>
+    <t>2024-04-10 10:56:00</t>
+  </si>
+  <si>
+    <t>Print</t>
+  </si>
+  <si>
+    <t>2024-03-27 09:36:00</t>
+  </si>
+  <si>
+    <t>2021-12-09 13:47:00</t>
+  </si>
+  <si>
+    <t>2021-06-18 12:50:00</t>
+  </si>
+  <si>
+    <t>2021-10-13 13:05:00</t>
+  </si>
+  <si>
+    <t>2020-12-02 10:22:00</t>
+  </si>
+  <si>
+    <t>2015-08-17</t>
+  </si>
+  <si>
+    <t>S1231</t>
+  </si>
+  <si>
+    <t>News Letter</t>
+  </si>
+  <si>
+    <t>2021-05-14 11:22:00</t>
+  </si>
+  <si>
+    <t>2021-10-15 16:08:00</t>
+  </si>
+  <si>
+    <t>2019-12-09</t>
+  </si>
+  <si>
+    <t>2022-12-07 09:36:00</t>
+  </si>
+  <si>
+    <t>H1023</t>
+  </si>
+  <si>
+    <t>2023-06-21 12:14:00</t>
+  </si>
+  <si>
+    <t>2023-02-10 11:34:00</t>
+  </si>
+  <si>
+    <t>2021-01-26 10:37:00</t>
+  </si>
+  <si>
+    <t>2024-01-18 08:43:00</t>
+  </si>
+  <si>
+    <t>Targeted Marketing</t>
+  </si>
+  <si>
+    <t>2023-03-08 13:42:00</t>
+  </si>
+  <si>
+    <t>2019-02-08</t>
+  </si>
+  <si>
+    <t>H1177</t>
+  </si>
+  <si>
+    <t>2023-09-18 10:44:00</t>
+  </si>
+  <si>
+    <t>2020-06-09 12:57:00</t>
+  </si>
+  <si>
+    <t>2022-04-13 08:59:00</t>
+  </si>
+  <si>
+    <t>2023-11-07 11:02:00</t>
+  </si>
+  <si>
+    <t>U1459</t>
+  </si>
+  <si>
+    <t>2021-01-22 12:36:00</t>
+  </si>
+  <si>
+    <t>H1251</t>
+  </si>
+  <si>
+    <t>2021-09-13 14:29:00</t>
+  </si>
+  <si>
+    <t>2022-11-25 16:26:00</t>
+  </si>
+  <si>
+    <t>2023-06-18</t>
+  </si>
+  <si>
+    <t>2015-09-15</t>
+  </si>
+  <si>
+    <t>99997</t>
+  </si>
+  <si>
+    <t>2022-06-13 15:34:00</t>
+  </si>
+  <si>
+    <t>2020-12-31 17:32:00</t>
+  </si>
+  <si>
+    <t>2016-09-27</t>
+  </si>
+  <si>
+    <t>2023-03-21 10:56:00</t>
+  </si>
+  <si>
+    <t>H1064</t>
+  </si>
+  <si>
+    <t>2021-11-02 13:17:00</t>
+  </si>
+  <si>
+    <t>2023-10-02 11:05:00</t>
+  </si>
+  <si>
+    <t>2018-01-16</t>
+  </si>
+  <si>
+    <t>2019-03-07</t>
+  </si>
+  <si>
+    <t>H0092</t>
+  </si>
+  <si>
+    <t>2015-11-10</t>
+  </si>
+  <si>
+    <t>2021-07-20 08:34:00</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>2024-02-14 10:25:00</t>
+  </si>
+  <si>
+    <t>H1088</t>
+  </si>
+  <si>
+    <t>2015-11-19</t>
+  </si>
+  <si>
+    <t>K1391</t>
+  </si>
+  <si>
+    <t>2022-05-12 09:39:00</t>
+  </si>
+  <si>
+    <t>S1445</t>
+  </si>
+  <si>
+    <t>2017-03-14</t>
+  </si>
+  <si>
+    <t>2023-03-22 09:38:00</t>
+  </si>
+  <si>
+    <t>2020-06-10 12:58:00</t>
+  </si>
+  <si>
+    <t>2023-12-15 10:17:00</t>
+  </si>
+  <si>
+    <t>2020-02-03</t>
+  </si>
+  <si>
+    <t>H1486</t>
+  </si>
+  <si>
+    <t>2023-11-19</t>
+  </si>
+  <si>
+    <t>H1451</t>
+  </si>
+  <si>
+    <t>2018-08-10</t>
+  </si>
+  <si>
+    <t>2020-09-28 10:09:00</t>
+  </si>
+  <si>
+    <t>2020-05-08 14:13:00</t>
+  </si>
+  <si>
+    <t>2022-01-18 11:18:00</t>
+  </si>
+  <si>
+    <t>2019-02-19</t>
+  </si>
+  <si>
+    <t>S1471</t>
+  </si>
+  <si>
+    <t>2020-12-31 17:41:00</t>
+  </si>
+  <si>
+    <t>2023-02-09 14:24:00</t>
+  </si>
+  <si>
+    <t>2018-07-12</t>
+  </si>
+  <si>
+    <t>H1176</t>
+  </si>
+  <si>
+    <t>2016-11-11</t>
+  </si>
+  <si>
+    <t>2023-03-10 12:00:00</t>
+  </si>
+  <si>
+    <t>2023-11-01 13:05:00</t>
+  </si>
+  <si>
+    <t>2021-01-13 10:17:00</t>
+  </si>
+  <si>
+    <t>T1207</t>
+  </si>
+  <si>
+    <t>2020-04-20</t>
+  </si>
+  <si>
+    <t>2020-05-19 11:39:00</t>
+  </si>
+  <si>
+    <t>2016-11-15</t>
+  </si>
+  <si>
+    <t>2023-05-09 10:07:00</t>
+  </si>
+  <si>
+    <t>S1094</t>
+  </si>
+  <si>
+    <t>2019-06-17</t>
+  </si>
+  <si>
+    <t>H1182</t>
+  </si>
+  <si>
+    <t>2021-06-11 11:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-05 10:24:00</t>
+  </si>
+  <si>
+    <t>2023-09-19 11:32:00</t>
+  </si>
+  <si>
+    <t>L1085</t>
+  </si>
+  <si>
+    <t>2015-11-05</t>
+  </si>
+  <si>
+    <t>2020-10-22 09:47:00</t>
+  </si>
+  <si>
+    <t>2019-05-05</t>
+  </si>
+  <si>
+    <t>2017-07-14</t>
+  </si>
+  <si>
+    <t>2023-09-18 10:24:00</t>
+  </si>
+  <si>
+    <t>2015-04-23</t>
+  </si>
+  <si>
+    <t>2021-10-28 09:20:00</t>
+  </si>
+  <si>
+    <t>2019-04-16</t>
+  </si>
+  <si>
+    <t>H0098</t>
+  </si>
+  <si>
+    <t>2023-05-09 11:11:00</t>
+  </si>
+  <si>
+    <t>2017-05-26</t>
+  </si>
+  <si>
+    <t>T1167</t>
+  </si>
+  <si>
+    <t>2020-12-02 10:49:00</t>
+  </si>
+  <si>
+    <t>S1091</t>
+  </si>
+  <si>
+    <t>2017-12-04</t>
+  </si>
+  <si>
+    <t>2021-05-12 08:32:00</t>
+  </si>
+  <si>
+    <t>2019-03-06</t>
+  </si>
+  <si>
+    <t>2017-10-17</t>
+  </si>
+  <si>
+    <t>H1996</t>
+  </si>
+  <si>
+    <t>2023-07-26 10:11:00</t>
+  </si>
+  <si>
+    <t>2023-10-19 08:51:00</t>
+  </si>
+  <si>
+    <t>2018-05-17</t>
+  </si>
+  <si>
+    <t>2023-09-17</t>
+  </si>
+  <si>
+    <t>2021-06-17 14:22:00</t>
+  </si>
+  <si>
+    <t>2022-10-24 14:09:00</t>
+  </si>
+  <si>
+    <t>2016-03-14</t>
+  </si>
+  <si>
+    <t>S1456</t>
+  </si>
+  <si>
+    <t>T1504</t>
+  </si>
+  <si>
+    <t>2023-05-16 15:19:00</t>
+  </si>
+  <si>
+    <t>2024-03-11 15:01:00</t>
+  </si>
+  <si>
+    <t>2022-09-01 12:57:00</t>
+  </si>
+  <si>
+    <t>2018-03-12</t>
+  </si>
+  <si>
+    <t>2021-01-05 11:24:00</t>
+  </si>
+  <si>
+    <t>2023-12-03</t>
+  </si>
+  <si>
+    <t>See the other sheets for sample data (not real) for each data kind.</t>
+  </si>
 </sst>
 </file>
 
@@ -442,7 +2810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -455,6 +2823,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -769,9 +3138,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77093901-CD9F-48AC-856F-14054605157D}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -792,43 +3163,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -836,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
         <v>38</v>
@@ -853,72 +3212,72 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
+      <c r="D11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -926,13 +3285,13 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
@@ -943,16 +3302,16 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -960,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>41</v>
+      <c r="D16" t="s">
+        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>37</v>
@@ -977,16 +3336,16 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -994,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" t="s">
         <v>38</v>
@@ -1008,24 +3367,24 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1033,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E21" t="s">
         <v>37</v>
@@ -1050,55 +3409,55 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1106,49 +3465,49 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="E26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="2" t="s">
+      <c r="D27" t="s">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="B28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -1157,16 +3516,6916 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4DC5007-AB73-434B-9FF6-A65C26368904}">
+  <dimension ref="A1:E100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.21875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D8DD148-7425-4098-9692-F9AE17A2D45A}">
+  <dimension ref="A1:F100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="6"/>
+    <col min="3" max="3" width="32.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="6"/>
+    <col min="5" max="5" width="10.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98039F54-1F75-40A2-A42B-99EFE7685D34}">
+  <dimension ref="A1:J100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>529</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>530</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>574</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>577</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>586</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>587</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>592</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>600</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>605</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>673</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>676</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>680</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>685</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>689</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>691</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>597</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>699</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFB07EBA-F531-4606-A15A-77E8BE9F4EA1}">
+  <dimension ref="A1:L100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>728</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>729</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>730</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>733</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>736</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>774</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>775</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D49" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C51" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>787</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C63" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C69" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D69" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="E69" s="6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C71" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="E72" s="6" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C79" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="E81" s="6" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="E82" s="6" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="E85" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="E88" s="6" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>828</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>829</v>
+      </c>
+      <c r="E91" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="E94" s="6" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C95" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="E96" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C99" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="E99" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="E100" s="6" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
